--- a/results/main/synthetic_normal.xlsx
+++ b/results/main/synthetic_normal.xlsx
@@ -8,16 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dhanish\FYP\AnchoragePlanner\results\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3B7AC4-449C-41DC-AE16-F741D014D548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE6B6FC-764E-4DBF-A335-2473AD451951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.50" sheetId="1" r:id="rId1"/>
     <sheet name="0.40" sheetId="2" r:id="rId2"/>
     <sheet name="0.60" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -358,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,6 +464,108 @@
         <v>2.6522290785725829E-2</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>510.34720985524979</v>
+      </c>
+      <c r="B6">
+        <v>1174.944173791343</v>
+      </c>
+      <c r="C6">
+        <v>676.12594458438286</v>
+      </c>
+      <c r="D6">
+        <v>0.68724470787583003</v>
+      </c>
+      <c r="E6">
+        <v>2.3255817595983129E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>651.74316020245874</v>
+      </c>
+      <c r="B7">
+        <v>1305.445581248164</v>
+      </c>
+      <c r="C7">
+        <v>679.60362694300522</v>
+      </c>
+      <c r="D7">
+        <v>0.67890026817716964</v>
+      </c>
+      <c r="E7">
+        <v>2.383781509403966E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>557.89353830541654</v>
+      </c>
+      <c r="B8">
+        <v>1174.9268601683989</v>
+      </c>
+      <c r="C8">
+        <v>734.255</v>
+      </c>
+      <c r="D8">
+        <v>0.65247158669350502</v>
+      </c>
+      <c r="E8">
+        <v>2.5339324136447169E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>519.5094194755286</v>
+      </c>
+      <c r="B9">
+        <v>1190.087324258071</v>
+      </c>
+      <c r="C9">
+        <v>683.55050505050508</v>
+      </c>
+      <c r="D9">
+        <v>0.68064965244567444</v>
+      </c>
+      <c r="E9">
+        <v>2.429675075993384E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>649.022470293369</v>
+      </c>
+      <c r="B10">
+        <v>1324.380923111165</v>
+      </c>
+      <c r="C10">
+        <v>675.07281553398059</v>
+      </c>
+      <c r="D10">
+        <v>0.67126937307607648</v>
+      </c>
+      <c r="E10">
+        <v>2.502462820392955E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>479.75888221144191</v>
+      </c>
+      <c r="B11">
+        <v>1174.159349296501</v>
+      </c>
+      <c r="C11">
+        <v>651.6</v>
+      </c>
+      <c r="D11">
+        <v>0.6759713893799294</v>
+      </c>
+      <c r="E11">
+        <v>2.8378890896113809E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -458,10 +573,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B339E434-220A-46E4-B8EF-D9E61AB848E9}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,6 +666,108 @@
         <v>2.1474987598688981E-2</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>669.8116236997505</v>
+      </c>
+      <c r="B6">
+        <v>1369.0534469071731</v>
+      </c>
+      <c r="C6">
+        <v>660.93450881612091</v>
+      </c>
+      <c r="D6">
+        <v>0.67010702845570924</v>
+      </c>
+      <c r="E6">
+        <v>2.8015826165694851E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>452.44521683554109</v>
+      </c>
+      <c r="B7">
+        <v>1059.1785012042501</v>
+      </c>
+      <c r="C7">
+        <v>732.13436692506457</v>
+      </c>
+      <c r="D7">
+        <v>0.65196012263967473</v>
+      </c>
+      <c r="E7">
+        <v>2.6271130809333462E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>557.89353830541654</v>
+      </c>
+      <c r="B8">
+        <v>1174.9268601683989</v>
+      </c>
+      <c r="C8">
+        <v>734.255</v>
+      </c>
+      <c r="D8">
+        <v>0.65247158669350502</v>
+      </c>
+      <c r="E8">
+        <v>2.5339324136447169E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>521.54518623377135</v>
+      </c>
+      <c r="B9">
+        <v>1176.7995150394561</v>
+      </c>
+      <c r="C9">
+        <v>666.12846347607058</v>
+      </c>
+      <c r="D9">
+        <v>0.65657810883964263</v>
+      </c>
+      <c r="E9">
+        <v>2.451972336650696E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>534.27094820443904</v>
+      </c>
+      <c r="B10">
+        <v>1225.746184748609</v>
+      </c>
+      <c r="C10">
+        <v>669.54368932038835</v>
+      </c>
+      <c r="D10">
+        <v>0.66204750866635453</v>
+      </c>
+      <c r="E10">
+        <v>2.5708682753977301E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>455.31287426582003</v>
+      </c>
+      <c r="B11">
+        <v>1153.08647274905</v>
+      </c>
+      <c r="C11">
+        <v>654.70886075949363</v>
+      </c>
+      <c r="D11">
+        <v>0.67382026664366157</v>
+      </c>
+      <c r="E11">
+        <v>3.0450557704565721E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -558,10 +775,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC77578-47CB-4306-A5C2-BC63AA56775E}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+      <selection activeCell="A11" sqref="A11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,6 +851,125 @@
         <v>2.656421077843418E-2</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>501.2010016659674</v>
+      </c>
+      <c r="B5">
+        <v>1159.5843818421729</v>
+      </c>
+      <c r="C5">
+        <v>837.38604651162791</v>
+      </c>
+      <c r="D5">
+        <v>0.65321441784606915</v>
+      </c>
+      <c r="E5">
+        <v>2.6522290785725829E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>420.38565525002127</v>
+      </c>
+      <c r="B6">
+        <v>1026.3847792267729</v>
+      </c>
+      <c r="C6">
+        <v>668.89646464646466</v>
+      </c>
+      <c r="D6">
+        <v>0.65493053272900137</v>
+      </c>
+      <c r="E6">
+        <v>2.6629456419181911E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>713.28168909361329</v>
+      </c>
+      <c r="B7">
+        <v>1383.0561459905989</v>
+      </c>
+      <c r="C7">
+        <v>675.16321243523316</v>
+      </c>
+      <c r="D7">
+        <v>0.68169114398052155</v>
+      </c>
+      <c r="E7">
+        <v>2.4132973567627461E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>470.02477365397368</v>
+      </c>
+      <c r="B8">
+        <v>1095.3493692519171</v>
+      </c>
+      <c r="C8">
+        <v>751.44611528822054</v>
+      </c>
+      <c r="D8">
+        <v>0.66848966539265742</v>
+      </c>
+      <c r="E8">
+        <v>2.6454299174723549E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>544.68894936474283</v>
+      </c>
+      <c r="B9">
+        <v>1212.8969577596511</v>
+      </c>
+      <c r="C9">
+        <v>676.53535353535358</v>
+      </c>
+      <c r="D9">
+        <v>0.68284441818636188</v>
+      </c>
+      <c r="E9">
+        <v>2.3685705946734539E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>550.431007928996</v>
+      </c>
+      <c r="B10">
+        <v>1254.392568752266</v>
+      </c>
+      <c r="C10">
+        <v>648.24455205811137</v>
+      </c>
+      <c r="D10">
+        <v>0.68721059850780319</v>
+      </c>
+      <c r="E10">
+        <v>2.13560715960429E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>479.75888221144191</v>
+      </c>
+      <c r="B11">
+        <v>1174.159349296501</v>
+      </c>
+      <c r="C11">
+        <v>651.6</v>
+      </c>
+      <c r="D11">
+        <v>0.6759713893799294</v>
+      </c>
+      <c r="E11">
+        <v>2.8378890896113809E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/main/synthetic_normal.xlsx
+++ b/results/main/synthetic_normal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dhanish\FYP\AnchoragePlanner\results\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE6B6FC-764E-4DBF-A335-2473AD451951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02E13C4-05C6-418C-B40F-ABB2FD934E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.50" sheetId="1" r:id="rId1"/>
@@ -371,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,6 +566,74 @@
         <v>2.8378890896113809E-2</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>590.88509402264799</v>
+      </c>
+      <c r="B12">
+        <v>1229.803289370057</v>
+      </c>
+      <c r="C12">
+        <v>675.59669811320759</v>
+      </c>
+      <c r="D12">
+        <v>0.67281493164773409</v>
+      </c>
+      <c r="E12">
+        <v>2.681981365216966E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>429.51186114385513</v>
+      </c>
+      <c r="B13">
+        <v>1033.414649608324</v>
+      </c>
+      <c r="C13">
+        <v>754.11502347417843</v>
+      </c>
+      <c r="D13">
+        <v>0.65259625382779141</v>
+      </c>
+      <c r="E13">
+        <v>2.428925168258814E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>399.04589218814158</v>
+      </c>
+      <c r="B14">
+        <v>991.72738702488482</v>
+      </c>
+      <c r="C14">
+        <v>801.60552763819101</v>
+      </c>
+      <c r="D14">
+        <v>0.65913231019563501</v>
+      </c>
+      <c r="E14">
+        <v>2.7215684453352859E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>610.03453922119752</v>
+      </c>
+      <c r="B15">
+        <v>1269.0105418534699</v>
+      </c>
+      <c r="C15">
+        <v>747.99266503667479</v>
+      </c>
+      <c r="D15">
+        <v>0.66116466583922651</v>
+      </c>
+      <c r="E15">
+        <v>2.6537119952962481E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -573,10 +641,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B339E434-220A-46E4-B8EF-D9E61AB848E9}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E11"/>
+      <selection activeCell="A15" sqref="A15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -768,6 +836,74 @@
         <v>3.0450557704565721E-2</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>452.27084097778572</v>
+      </c>
+      <c r="B12">
+        <v>1125.084807395458</v>
+      </c>
+      <c r="C12">
+        <v>705.28235294117644</v>
+      </c>
+      <c r="D12">
+        <v>0.67607751856864062</v>
+      </c>
+      <c r="E12">
+        <v>2.2340148991252948E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>552.4128056165473</v>
+      </c>
+      <c r="B13">
+        <v>1149.301697337924</v>
+      </c>
+      <c r="C13">
+        <v>744.37971698113211</v>
+      </c>
+      <c r="D13">
+        <v>0.66200838384367067</v>
+      </c>
+      <c r="E13">
+        <v>2.2897146847051929E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>764.54267536228645</v>
+      </c>
+      <c r="B14">
+        <v>1413.729133965084</v>
+      </c>
+      <c r="C14">
+        <v>774.40302267002517</v>
+      </c>
+      <c r="D14">
+        <v>0.68619494224265187</v>
+      </c>
+      <c r="E14">
+        <v>2.3426291116924791E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>439.9372876204427</v>
+      </c>
+      <c r="B15">
+        <v>1143.5316066813259</v>
+      </c>
+      <c r="C15">
+        <v>782.67726161369194</v>
+      </c>
+      <c r="D15">
+        <v>0.6402326837850193</v>
+      </c>
+      <c r="E15">
+        <v>2.733476191018987E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -775,10 +911,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC77578-47CB-4306-A5C2-BC63AA56775E}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -970,6 +1106,74 @@
         <v>2.8378890896113809E-2</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>597.04478792815075</v>
+      </c>
+      <c r="B12">
+        <v>1244.2596134077951</v>
+      </c>
+      <c r="C12">
+        <v>674.68396226415098</v>
+      </c>
+      <c r="D12">
+        <v>0.67375751865688893</v>
+      </c>
+      <c r="E12">
+        <v>2.6579743371293159E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>433.91744807506728</v>
+      </c>
+      <c r="B13">
+        <v>1038.0901945972721</v>
+      </c>
+      <c r="C13">
+        <v>753.44835680751169</v>
+      </c>
+      <c r="D13">
+        <v>0.65330615409895187</v>
+      </c>
+      <c r="E13">
+        <v>2.4136610764090769E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>399.04589220000003</v>
+      </c>
+      <c r="B14">
+        <v>991.72738700000002</v>
+      </c>
+      <c r="C14">
+        <v>801.60552759999996</v>
+      </c>
+      <c r="D14">
+        <v>0.65913231000000005</v>
+      </c>
+      <c r="E14">
+        <v>2.7215684E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>552.31664751209109</v>
+      </c>
+      <c r="B15">
+        <v>1204.733087632613</v>
+      </c>
+      <c r="C15">
+        <v>775.86797066014674</v>
+      </c>
+      <c r="D15">
+        <v>0.63663644048175472</v>
+      </c>
+      <c r="E15">
+        <v>2.7677938463430259E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/main/synthetic_normal.xlsx
+++ b/results/main/synthetic_normal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dhanish\FYP\AnchoragePlanner\results\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02E13C4-05C6-418C-B40F-ABB2FD934E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B975E2-8D0F-42AD-916C-19137710BBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,6 +36,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -65,8 +68,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,15 +375,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A20" sqref="A20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>529.39012828823593</v>
       </c>
@@ -395,8 +399,28 @@
       <c r="E1">
         <v>2.2300789139516511E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1">
+        <f>AVERAGE(A1:A15)</f>
+        <v>555.5222680590324</v>
+      </c>
+      <c r="H1">
+        <f>AVERAGE(B1:B15)</f>
+        <v>1210.4229058216636</v>
+      </c>
+      <c r="I1">
+        <f>AVERAGE(C1:C15)</f>
+        <v>726.66990368012864</v>
+      </c>
+      <c r="J1">
+        <f>AVERAGE(D1:D15)</f>
+        <v>0.66688437335459583</v>
+      </c>
+      <c r="K1">
+        <f>AVERAGE(E1:E15)</f>
+        <v>2.5218490593973124E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>536.84488877732156</v>
       </c>
@@ -413,7 +437,7 @@
         <v>2.1830730473957369E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>768.34450642306979</v>
       </c>
@@ -430,7 +454,7 @@
         <v>2.7603515255930501E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>599.3014288115844</v>
       </c>
@@ -447,7 +471,7 @@
         <v>2.5024936826946311E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>501.2010016659674</v>
       </c>
@@ -464,7 +488,7 @@
         <v>2.6522290785725829E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>510.34720985524979</v>
       </c>
@@ -481,7 +505,7 @@
         <v>2.3255817595983129E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>651.74316020245874</v>
       </c>
@@ -498,7 +522,7 @@
         <v>2.383781509403966E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>557.89353830541654</v>
       </c>
@@ -515,7 +539,7 @@
         <v>2.5339324136447169E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>519.5094194755286</v>
       </c>
@@ -532,7 +556,7 @@
         <v>2.429675075993384E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>649.022470293369</v>
       </c>
@@ -549,7 +573,7 @@
         <v>2.502462820392955E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>479.75888221144191</v>
       </c>
@@ -566,7 +590,7 @@
         <v>2.8378890896113809E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>590.88509402264799</v>
       </c>
@@ -583,7 +607,7 @@
         <v>2.681981365216966E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>429.51186114385513</v>
       </c>
@@ -600,7 +624,7 @@
         <v>2.428925168258814E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>399.04589218814158</v>
       </c>
@@ -617,7 +641,7 @@
         <v>2.7215684453352859E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>610.03453922119752</v>
       </c>
@@ -632,6 +656,91 @@
       </c>
       <c r="E15">
         <v>2.6537119952962481E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>513.67530366141136</v>
+      </c>
+      <c r="B16">
+        <v>1167.712998191698</v>
+      </c>
+      <c r="C16">
+        <v>743.55198019801981</v>
+      </c>
+      <c r="D16">
+        <v>0.65267719900260956</v>
+      </c>
+      <c r="E16">
+        <v>2.59785468337719E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>506.95199079070358</v>
+      </c>
+      <c r="B17">
+        <v>1179.3006833047671</v>
+      </c>
+      <c r="C17">
+        <v>657.64795918367349</v>
+      </c>
+      <c r="D17">
+        <v>0.66935912055611568</v>
+      </c>
+      <c r="E17">
+        <v>2.4709163978245241E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>524.74776772519488</v>
+      </c>
+      <c r="B18">
+        <v>1170.51573239859</v>
+      </c>
+      <c r="C18">
+        <v>737.84841075794623</v>
+      </c>
+      <c r="D18">
+        <v>0.65527488696080016</v>
+      </c>
+      <c r="E18">
+        <v>2.8091584423651499E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>595.15491084244809</v>
+      </c>
+      <c r="B19">
+        <v>1323.858395972585</v>
+      </c>
+      <c r="C19">
+        <v>726.81308411214957</v>
+      </c>
+      <c r="D19">
+        <v>0.64927363270721683</v>
+      </c>
+      <c r="E19">
+        <v>2.4954252226890839E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>466.496166611327</v>
+      </c>
+      <c r="B20">
+        <v>1062.2898979038739</v>
+      </c>
+      <c r="C20">
+        <v>530.82957393483707</v>
+      </c>
+      <c r="D20">
+        <v>0.65596951472311993</v>
+      </c>
+      <c r="E20">
+        <v>2.799174957404155E-2</v>
       </c>
     </row>
   </sheetData>
@@ -641,15 +750,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B339E434-220A-46E4-B8EF-D9E61AB848E9}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:E15"/>
+      <selection activeCell="A20" sqref="A20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>470.88015427227708</v>
       </c>
@@ -665,8 +774,28 @@
       <c r="E1">
         <v>2.5897737903633061E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1">
+        <f>AVERAGE(A1:A15)</f>
+        <v>531.83024859383829</v>
+      </c>
+      <c r="H1">
+        <f>AVERAGE(B1:B15)</f>
+        <v>1189.7726830189656</v>
+      </c>
+      <c r="I1">
+        <f>AVERAGE(C1:C15)</f>
+        <v>731.0259730643387</v>
+      </c>
+      <c r="J1">
+        <f>AVERAGE(D1:D15)</f>
+        <v>0.66287015833659491</v>
+      </c>
+      <c r="K1">
+        <f>AVERAGE(E1:E15)</f>
+        <v>2.4967710841856394E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>534.89128756020943</v>
       </c>
@@ -683,7 +812,7 @@
         <v>2.18360006375522E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>510.64354218251668</v>
       </c>
@@ -700,7 +829,7 @@
         <v>2.7574247481955919E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>608.35815365911162</v>
       </c>
@@ -717,7 +846,7 @@
         <v>2.1429095204070769E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>452.23759411165901</v>
       </c>
@@ -734,7 +863,7 @@
         <v>2.1474987598688981E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>669.8116236997505</v>
       </c>
@@ -751,7 +880,7 @@
         <v>2.8015826165694851E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>452.44521683554109</v>
       </c>
@@ -768,7 +897,7 @@
         <v>2.6271130809333462E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>557.89353830541654</v>
       </c>
@@ -785,7 +914,7 @@
         <v>2.5339324136447169E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>521.54518623377135</v>
       </c>
@@ -802,7 +931,7 @@
         <v>2.451972336650696E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>534.27094820443904</v>
       </c>
@@ -819,7 +948,7 @@
         <v>2.5708682753977301E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>455.31287426582003</v>
       </c>
@@ -836,7 +965,7 @@
         <v>3.0450557704565721E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>452.27084097778572</v>
       </c>
@@ -853,7 +982,7 @@
         <v>2.2340148991252948E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>552.4128056165473</v>
       </c>
@@ -870,7 +999,7 @@
         <v>2.2897146847051929E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>764.54267536228645</v>
       </c>
@@ -887,7 +1016,7 @@
         <v>2.3426291116924791E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>439.9372876204427</v>
       </c>
@@ -902,6 +1031,91 @@
       </c>
       <c r="E15">
         <v>2.733476191018987E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>422.72038189983363</v>
+      </c>
+      <c r="B16">
+        <v>1083.263317985715</v>
+      </c>
+      <c r="C16">
+        <v>742.27407407407406</v>
+      </c>
+      <c r="D16">
+        <v>0.65042987553934983</v>
+      </c>
+      <c r="E16">
+        <v>2.6019372058818858E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>517.67852050427575</v>
+      </c>
+      <c r="B17">
+        <v>1244.2316261077531</v>
+      </c>
+      <c r="C17">
+        <v>690.55754475703327</v>
+      </c>
+      <c r="D17">
+        <v>0.65037357491686354</v>
+      </c>
+      <c r="E17">
+        <v>2.5621112531782821E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>512.50162201016587</v>
+      </c>
+      <c r="B18">
+        <v>1152.5798848199231</v>
+      </c>
+      <c r="C18">
+        <v>739.05378973105132</v>
+      </c>
+      <c r="D18">
+        <v>0.65451889333525071</v>
+      </c>
+      <c r="E18">
+        <v>2.8106274693205039E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>563.3719590770429</v>
+      </c>
+      <c r="B19">
+        <v>1224.602218551096</v>
+      </c>
+      <c r="C19">
+        <v>738.27102803738319</v>
+      </c>
+      <c r="D19">
+        <v>0.64075920995877222</v>
+      </c>
+      <c r="E19">
+        <v>2.5669393916885951E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>518.10286318713645</v>
+      </c>
+      <c r="B20">
+        <v>1184.8491794670381</v>
+      </c>
+      <c r="C20">
+        <v>534.29323308270682</v>
+      </c>
+      <c r="D20">
+        <v>0.64175690625679105</v>
+      </c>
+      <c r="E20">
+        <v>3.1926710128734929E-2</v>
       </c>
     </row>
   </sheetData>
@@ -911,15 +1125,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC77578-47CB-4306-A5C2-BC63AA56775E}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:E15"/>
+      <selection activeCell="A20" sqref="A20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>529.39012828823593</v>
       </c>
@@ -935,8 +1152,28 @@
       <c r="E1">
         <v>2.2300789139516511E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1">
+        <f>AVERAGE(A1:A15)</f>
+        <v>515.76688226007354</v>
+      </c>
+      <c r="H1">
+        <f>AVERAGE(B1:B15)</f>
+        <v>1157.81497290313</v>
+      </c>
+      <c r="I1">
+        <f>AVERAGE(C1:C15)</f>
+        <v>726.36118063633523</v>
+      </c>
+      <c r="J1">
+        <f>AVERAGE(D1:D15)</f>
+        <v>0.66651158200092731</v>
+      </c>
+      <c r="K1">
+        <f>AVERAGE(E1:E15)</f>
+        <v>2.5279414189480889E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>536.84488877732156</v>
       </c>
@@ -953,7 +1190,7 @@
         <v>2.1830730473957369E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>522.24770474447018</v>
       </c>
@@ -970,7 +1207,7 @@
         <v>2.5725817465341059E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>485.92377720700938</v>
       </c>
@@ -987,7 +1224,7 @@
         <v>2.656421077843418E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>501.2010016659674</v>
       </c>
@@ -1004,7 +1241,7 @@
         <v>2.6522290785725829E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>420.38565525002127</v>
       </c>
@@ -1021,7 +1258,7 @@
         <v>2.6629456419181911E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>713.28168909361329</v>
       </c>
@@ -1038,7 +1275,7 @@
         <v>2.4132973567627461E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>470.02477365397368</v>
       </c>
@@ -1055,7 +1292,7 @@
         <v>2.6454299174723549E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>544.68894936474283</v>
       </c>
@@ -1072,7 +1309,7 @@
         <v>2.3685705946734539E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>550.431007928996</v>
       </c>
@@ -1089,7 +1326,7 @@
         <v>2.13560715960429E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>479.75888221144191</v>
       </c>
@@ -1106,7 +1343,7 @@
         <v>2.8378890896113809E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>597.04478792815075</v>
       </c>
@@ -1123,7 +1360,7 @@
         <v>2.6579743371293159E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>433.91744807506728</v>
       </c>
@@ -1140,7 +1377,7 @@
         <v>2.4136610764090769E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>399.04589220000003</v>
       </c>
@@ -1157,7 +1394,7 @@
         <v>2.7215684E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>552.31664751209109</v>
       </c>
@@ -1172,6 +1409,91 @@
       </c>
       <c r="E15">
         <v>2.7677938463430259E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>505.57859406144428</v>
+      </c>
+      <c r="B16">
+        <v>1151.124938654563</v>
+      </c>
+      <c r="C16">
+        <v>744.06930693069307</v>
+      </c>
+      <c r="D16">
+        <v>0.65285256448638562</v>
+      </c>
+      <c r="E16">
+        <v>2.5571993941440899E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>506.95199079070358</v>
+      </c>
+      <c r="B17">
+        <v>1179.3006833047671</v>
+      </c>
+      <c r="C17">
+        <v>657.64795918367349</v>
+      </c>
+      <c r="D17">
+        <v>0.66935912055611568</v>
+      </c>
+      <c r="E17">
+        <v>2.4709163978245241E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>540.33662120741485</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1186.999757147534</v>
+      </c>
+      <c r="C18">
+        <v>733.58435207823959</v>
+      </c>
+      <c r="D18">
+        <v>0.65541822691647345</v>
+      </c>
+      <c r="E18">
+        <v>2.7527858139910089E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>612.9041266970105</v>
+      </c>
+      <c r="B19">
+        <v>1334.8822897165801</v>
+      </c>
+      <c r="C19">
+        <v>723.3878504672897</v>
+      </c>
+      <c r="D19">
+        <v>0.65182847736048921</v>
+      </c>
+      <c r="E19">
+        <v>2.4656841490867661E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>502.93960544910021</v>
+      </c>
+      <c r="B20">
+        <v>1146.439835665238</v>
+      </c>
+      <c r="C20">
+        <v>511.50749999999999</v>
+      </c>
+      <c r="D20">
+        <v>0.67122116223758777</v>
+      </c>
+      <c r="E20">
+        <v>2.553756992656114E-2</v>
       </c>
     </row>
   </sheetData>

--- a/results/main/synthetic_normal.xlsx
+++ b/results/main/synthetic_normal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dhanish\FYP\AnchoragePlanner\results\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B975E2-8D0F-42AD-916C-19137710BBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F410A8E4-7F65-491B-88A0-13C2AF4A5D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.50" sheetId="1" r:id="rId1"/>
@@ -375,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:E20"/>
+      <selection activeCell="G1" sqref="G1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -388,36 +388,36 @@
         <v>529.39012828823593</v>
       </c>
       <c r="B1">
+        <v>2.2300789139516511E-2</v>
+      </c>
+      <c r="C1">
+        <v>0.65623807437964488</v>
+      </c>
+      <c r="D1">
         <v>1217.367664007277</v>
       </c>
-      <c r="C1">
+      <c r="E1">
         <v>868.92171717171721</v>
       </c>
-      <c r="D1">
-        <v>0.65623807437964488</v>
-      </c>
-      <c r="E1">
-        <v>2.2300789139516511E-2</v>
-      </c>
-      <c r="G1">
-        <f>AVERAGE(A1:A15)</f>
-        <v>555.5222680590324</v>
-      </c>
-      <c r="H1">
-        <f>AVERAGE(B1:B15)</f>
-        <v>1210.4229058216636</v>
-      </c>
-      <c r="I1">
-        <f>AVERAGE(C1:C15)</f>
-        <v>726.66990368012864</v>
-      </c>
-      <c r="J1">
-        <f>AVERAGE(D1:D15)</f>
-        <v>0.66688437335459583</v>
-      </c>
-      <c r="K1">
-        <f>AVERAGE(E1:E15)</f>
-        <v>2.5218490593973124E-2</v>
+      <c r="G1" t="str">
+        <f>CONCATENATE(AVERAGE(A1:A30), " ± ", 1.96*_xlfn.STDEV.S(A1:A30)/SQRT(30))</f>
+        <v>544.204334319763 ± 28.9782034538924</v>
+      </c>
+      <c r="H1" t="str">
+        <f t="shared" ref="H1:K1" si="0">CONCATENATE(AVERAGE(B1:B30), " ± ", 1.96*_xlfn.STDEV.S(B1:B30)/SQRT(30))</f>
+        <v>0.0250536845062297 ± 0.000833449037086793</v>
+      </c>
+      <c r="I1" t="str">
+        <f t="shared" si="0"/>
+        <v>0.664581200474227 ± 0.00427209530326545</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" si="0"/>
+        <v>1199.07455062421 ± 36.4000859358105</v>
+      </c>
+      <c r="K1" t="str">
+        <f t="shared" si="0"/>
+        <v>743.571607523495 ± 32.3836008116941</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -425,16 +425,16 @@
         <v>536.84488877732156</v>
       </c>
       <c r="B2">
+        <v>2.1830730473957369E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.68032958341729433</v>
+      </c>
+      <c r="D2">
         <v>1160.164362269956</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>707.95</v>
-      </c>
-      <c r="D2">
-        <v>0.68032958341729433</v>
-      </c>
-      <c r="E2">
-        <v>2.1830730473957369E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -442,16 +442,16 @@
         <v>768.34450642306979</v>
       </c>
       <c r="B3">
+        <v>2.7603515255930501E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.66810973862799872</v>
+      </c>
+      <c r="D3">
         <v>1428.2848589182449</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>692.59337349397595</v>
-      </c>
-      <c r="D3">
-        <v>0.66810973862799872</v>
-      </c>
-      <c r="E3">
-        <v>2.7603515255930501E-2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -459,16 +459,16 @@
         <v>599.3014288115844</v>
       </c>
       <c r="B4">
+        <v>2.5024936826946311E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.65315864688935632</v>
+      </c>
+      <c r="D4">
         <v>1323.042240556927</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>713.67961165048541</v>
-      </c>
-      <c r="D4">
-        <v>0.65315864688935632</v>
-      </c>
-      <c r="E4">
-        <v>2.5024936826946311E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -476,16 +476,16 @@
         <v>501.2010016659674</v>
       </c>
       <c r="B5">
+        <v>2.6522290785725829E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.65321441784606915</v>
+      </c>
+      <c r="D5">
         <v>1159.5843818421729</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>837.38604651162791</v>
-      </c>
-      <c r="D5">
-        <v>0.65321441784606915</v>
-      </c>
-      <c r="E5">
-        <v>2.6522290785725829E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -493,16 +493,16 @@
         <v>510.34720985524979</v>
       </c>
       <c r="B6">
+        <v>2.3255817595983129E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.68724470787583003</v>
+      </c>
+      <c r="D6">
         <v>1174.944173791343</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>676.12594458438286</v>
-      </c>
-      <c r="D6">
-        <v>0.68724470787583003</v>
-      </c>
-      <c r="E6">
-        <v>2.3255817595983129E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -510,16 +510,16 @@
         <v>651.74316020245874</v>
       </c>
       <c r="B7">
+        <v>2.383781509403966E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.67890026817716964</v>
+      </c>
+      <c r="D7">
         <v>1305.445581248164</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>679.60362694300522</v>
-      </c>
-      <c r="D7">
-        <v>0.67890026817716964</v>
-      </c>
-      <c r="E7">
-        <v>2.383781509403966E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -527,16 +527,16 @@
         <v>557.89353830541654</v>
       </c>
       <c r="B8">
+        <v>2.5339324136447169E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.65247158669350502</v>
+      </c>
+      <c r="D8">
         <v>1174.9268601683989</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>734.255</v>
-      </c>
-      <c r="D8">
-        <v>0.65247158669350502</v>
-      </c>
-      <c r="E8">
-        <v>2.5339324136447169E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -544,16 +544,16 @@
         <v>519.5094194755286</v>
       </c>
       <c r="B9">
+        <v>2.429675075993384E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.68064965244567444</v>
+      </c>
+      <c r="D9">
         <v>1190.087324258071</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>683.55050505050508</v>
-      </c>
-      <c r="D9">
-        <v>0.68064965244567444</v>
-      </c>
-      <c r="E9">
-        <v>2.429675075993384E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -561,16 +561,16 @@
         <v>649.022470293369</v>
       </c>
       <c r="B10">
+        <v>2.502462820392955E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.67126937307607648</v>
+      </c>
+      <c r="D10">
         <v>1324.380923111165</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>675.07281553398059</v>
-      </c>
-      <c r="D10">
-        <v>0.67126937307607648</v>
-      </c>
-      <c r="E10">
-        <v>2.502462820392955E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -578,16 +578,16 @@
         <v>479.75888221144191</v>
       </c>
       <c r="B11">
+        <v>2.8378890896113809E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.6759713893799294</v>
+      </c>
+      <c r="D11">
         <v>1174.159349296501</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>651.6</v>
-      </c>
-      <c r="D11">
-        <v>0.6759713893799294</v>
-      </c>
-      <c r="E11">
-        <v>2.8378890896113809E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -595,16 +595,16 @@
         <v>590.88509402264799</v>
       </c>
       <c r="B12">
+        <v>2.681981365216966E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.67281493164773409</v>
+      </c>
+      <c r="D12">
         <v>1229.803289370057</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>675.59669811320759</v>
-      </c>
-      <c r="D12">
-        <v>0.67281493164773409</v>
-      </c>
-      <c r="E12">
-        <v>2.681981365216966E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -612,16 +612,16 @@
         <v>429.51186114385513</v>
       </c>
       <c r="B13">
+        <v>2.428925168258814E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.65259625382779141</v>
+      </c>
+      <c r="D13">
         <v>1033.414649608324</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>754.11502347417843</v>
-      </c>
-      <c r="D13">
-        <v>0.65259625382779141</v>
-      </c>
-      <c r="E13">
-        <v>2.428925168258814E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -629,16 +629,16 @@
         <v>399.04589218814158</v>
       </c>
       <c r="B14">
+        <v>2.7215684453352859E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.65913231019563501</v>
+      </c>
+      <c r="D14">
         <v>991.72738702488482</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>801.60552763819101</v>
-      </c>
-      <c r="D14">
-        <v>0.65913231019563501</v>
-      </c>
-      <c r="E14">
-        <v>2.7215684453352859E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -646,16 +646,16 @@
         <v>610.03453922119752</v>
       </c>
       <c r="B15">
+        <v>2.6537119952962481E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.66116466583922651</v>
+      </c>
+      <c r="D15">
         <v>1269.0105418534699</v>
       </c>
-      <c r="C15">
+      <c r="E15">
         <v>747.99266503667479</v>
-      </c>
-      <c r="D15">
-        <v>0.66116466583922651</v>
-      </c>
-      <c r="E15">
-        <v>2.6537119952962481E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -663,16 +663,16 @@
         <v>513.67530366141136</v>
       </c>
       <c r="B16">
+        <v>2.59785468337719E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.65267719900260956</v>
+      </c>
+      <c r="D16">
         <v>1167.712998191698</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>743.55198019801981</v>
-      </c>
-      <c r="D16">
-        <v>0.65267719900260956</v>
-      </c>
-      <c r="E16">
-        <v>2.59785468337719E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -680,16 +680,16 @@
         <v>506.95199079070358</v>
       </c>
       <c r="B17">
+        <v>2.4709163978245241E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.66935912055611568</v>
+      </c>
+      <c r="D17">
         <v>1179.3006833047671</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>657.64795918367349</v>
-      </c>
-      <c r="D17">
-        <v>0.66935912055611568</v>
-      </c>
-      <c r="E17">
-        <v>2.4709163978245241E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -697,16 +697,16 @@
         <v>524.74776772519488</v>
       </c>
       <c r="B18">
+        <v>2.8091584423651499E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.65527488696080016</v>
+      </c>
+      <c r="D18">
         <v>1170.51573239859</v>
       </c>
-      <c r="C18">
+      <c r="E18">
         <v>737.84841075794623</v>
-      </c>
-      <c r="D18">
-        <v>0.65527488696080016</v>
-      </c>
-      <c r="E18">
-        <v>2.8091584423651499E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -714,16 +714,16 @@
         <v>595.15491084244809</v>
       </c>
       <c r="B19">
+        <v>2.4954252226890839E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.64927363270721683</v>
+      </c>
+      <c r="D19">
         <v>1323.858395972585</v>
       </c>
-      <c r="C19">
+      <c r="E19">
         <v>726.81308411214957</v>
-      </c>
-      <c r="D19">
-        <v>0.64927363270721683</v>
-      </c>
-      <c r="E19">
-        <v>2.4954252226890839E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -731,16 +731,186 @@
         <v>466.496166611327</v>
       </c>
       <c r="B20">
+        <v>2.799174957404155E-2</v>
+      </c>
+      <c r="C20">
+        <v>0.65596951472311993</v>
+      </c>
+      <c r="D20">
         <v>1062.2898979038739</v>
       </c>
-      <c r="C20">
+      <c r="E20">
         <v>530.82957393483707</v>
       </c>
-      <c r="D20">
-        <v>0.65596951472311993</v>
-      </c>
-      <c r="E20">
-        <v>2.799174957404155E-2</v>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>451.69684887215192</v>
+      </c>
+      <c r="B21">
+        <v>2.911401200291892E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.66195097568264449</v>
+      </c>
+      <c r="D21">
+        <v>1093.590411825302</v>
+      </c>
+      <c r="E21">
+        <v>778.04627249357327</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>596.23113530443266</v>
+      </c>
+      <c r="B22">
+        <v>2.599674080197632E-2</v>
+      </c>
+      <c r="C22">
+        <v>0.66673617045690758</v>
+      </c>
+      <c r="D22">
+        <v>1243.7642736496121</v>
+      </c>
+      <c r="E22">
+        <v>837.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>515.89664520281656</v>
+      </c>
+      <c r="B23">
+        <v>2.6862452754174621E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.65877952078592417</v>
+      </c>
+      <c r="D23">
+        <v>1166.2599858106701</v>
+      </c>
+      <c r="E23">
+        <v>648.67609254498711</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>449.43023500601771</v>
+      </c>
+      <c r="B24">
+        <v>2.4549024689229551E-2</v>
+      </c>
+      <c r="C24">
+        <v>0.66745950926402975</v>
+      </c>
+      <c r="D24">
+        <v>1029.019636838457</v>
+      </c>
+      <c r="E24">
+        <v>793.10075566750629</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>643.84188844238929</v>
+      </c>
+      <c r="B25">
+        <v>1.9020852480399059E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.6970116863825695</v>
+      </c>
+      <c r="D25">
+        <v>1201.5821184497449</v>
+      </c>
+      <c r="E25">
+        <v>997.24590163934431</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>474.40668721030602</v>
+      </c>
+      <c r="B26">
+        <v>2.1515601979657781E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.66541868958686712</v>
+      </c>
+      <c r="D26">
+        <v>1160.004336924992</v>
+      </c>
+      <c r="E26">
+        <v>689.24338624338623</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>597.23873773490095</v>
+      </c>
+      <c r="B27">
+        <v>2.4218163295667901E-2</v>
+      </c>
+      <c r="C27">
+        <v>0.6646432200016994</v>
+      </c>
+      <c r="D27">
+        <v>1276.142196573526</v>
+      </c>
+      <c r="E27">
+        <v>834.61463414634147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>564.44208320615644</v>
+      </c>
+      <c r="B28">
+        <v>2.5206009279727409E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.65773850882980756</v>
+      </c>
+      <c r="D28">
+        <v>1315.769954628445</v>
+      </c>
+      <c r="E28">
+        <v>866.14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>460.00774116828097</v>
+      </c>
+      <c r="B29">
+        <v>2.158952294041025E-2</v>
+      </c>
+      <c r="C29">
+        <v>0.64784784401962814</v>
+      </c>
+      <c r="D29">
+        <v>1106.919699941737</v>
+      </c>
+      <c r="E29">
+        <v>839.57177033492826</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>633.07786692884952</v>
+      </c>
+      <c r="B30">
+        <v>2.3535499016530161E-2</v>
+      </c>
+      <c r="C30">
+        <v>0.66402993494792084</v>
+      </c>
+      <c r="D30">
+        <v>1319.1626089874819</v>
+      </c>
+      <c r="E30">
+        <v>725.96984924623121</v>
       </c>
     </row>
   </sheetData>
@@ -750,10 +920,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B339E434-220A-46E4-B8EF-D9E61AB848E9}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -763,36 +933,36 @@
         <v>470.88015427227708</v>
       </c>
       <c r="B1">
+        <v>2.5897737903633061E-2</v>
+      </c>
+      <c r="C1">
+        <v>0.65592569711791604</v>
+      </c>
+      <c r="D1">
         <v>1151.681827240933</v>
       </c>
-      <c r="C1">
+      <c r="E1">
         <v>879.79848866498742</v>
       </c>
-      <c r="D1">
-        <v>0.65592569711791604</v>
-      </c>
-      <c r="E1">
-        <v>2.5897737903633061E-2</v>
-      </c>
-      <c r="G1">
-        <f>AVERAGE(A1:A15)</f>
-        <v>531.83024859383829</v>
-      </c>
-      <c r="H1">
-        <f>AVERAGE(B1:B15)</f>
-        <v>1189.7726830189656</v>
-      </c>
-      <c r="I1">
-        <f>AVERAGE(C1:C15)</f>
-        <v>731.0259730643387</v>
-      </c>
-      <c r="J1">
-        <f>AVERAGE(D1:D15)</f>
-        <v>0.66287015833659491</v>
-      </c>
-      <c r="K1">
-        <f>AVERAGE(E1:E15)</f>
-        <v>2.4967710841856394E-2</v>
+      <c r="G1" t="str">
+        <f>CONCATENATE(AVERAGE(A1:A30), " ± ", 1.96*_xlfn.STDEV.S(A1:A30)/SQRT(30))</f>
+        <v>531.337817800397 ± 27.290129450632</v>
+      </c>
+      <c r="H1" t="str">
+        <f t="shared" ref="H1:K1" si="0">CONCATENATE(AVERAGE(B1:B30), " ± ", 1.96*_xlfn.STDEV.S(B1:B30)/SQRT(30))</f>
+        <v>0.0250754926565964 ± 0.00102993189743905</v>
+      </c>
+      <c r="I1" t="str">
+        <f t="shared" si="0"/>
+        <v>0.661397112662627 ± 0.00462610379435157</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" si="0"/>
+        <v>1191.99433179852 ± 31.0766316635028</v>
+      </c>
+      <c r="K1" t="str">
+        <f t="shared" si="0"/>
+        <v>747.771734993755 ± 32.7615750041702</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -800,16 +970,16 @@
         <v>534.89128756020943</v>
       </c>
       <c r="B2">
+        <v>2.18360006375522E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.68031000995044599</v>
+      </c>
+      <c r="D2">
         <v>1159.075333982546</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>707.99249999999995</v>
-      </c>
-      <c r="D2">
-        <v>0.68031000995044599</v>
-      </c>
-      <c r="E2">
-        <v>2.18360006375522E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -817,16 +987,16 @@
         <v>510.64354218251668</v>
       </c>
       <c r="B3">
+        <v>2.7574247481955919E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.65538413384680194</v>
+      </c>
+      <c r="D3">
         <v>1140.7528015499249</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>706.99699699699704</v>
-      </c>
-      <c r="D3">
-        <v>0.65538413384680194</v>
-      </c>
-      <c r="E3">
-        <v>2.7574247481955919E-2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -834,16 +1004,16 @@
         <v>608.35815365911162</v>
       </c>
       <c r="B4">
+        <v>2.1429095204070769E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.66403632445454275</v>
+      </c>
+      <c r="D4">
         <v>1271.8821454257129</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>718.78692493946733</v>
-      </c>
-      <c r="D4">
-        <v>0.66403632445454275</v>
-      </c>
-      <c r="E4">
-        <v>2.1429095204070769E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -851,16 +1021,16 @@
         <v>452.23759411165901</v>
       </c>
       <c r="B5">
+        <v>2.1474987598688981E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.65589805930068756</v>
+      </c>
+      <c r="D5">
         <v>1132.7599108886409</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>827.36744186046508</v>
-      </c>
-      <c r="D5">
-        <v>0.65589805930068756</v>
-      </c>
-      <c r="E5">
-        <v>2.1474987598688981E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -868,16 +1038,16 @@
         <v>669.8116236997505</v>
       </c>
       <c r="B6">
+        <v>2.8015826165694851E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.67010702845570924</v>
+      </c>
+      <c r="D6">
         <v>1369.0534469071731</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>660.93450881612091</v>
-      </c>
-      <c r="D6">
-        <v>0.67010702845570924</v>
-      </c>
-      <c r="E6">
-        <v>2.8015826165694851E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -885,16 +1055,16 @@
         <v>452.44521683554109</v>
       </c>
       <c r="B7">
+        <v>2.6271130809333462E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.65196012263967473</v>
+      </c>
+      <c r="D7">
         <v>1059.1785012042501</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>732.13436692506457</v>
-      </c>
-      <c r="D7">
-        <v>0.65196012263967473</v>
-      </c>
-      <c r="E7">
-        <v>2.6271130809333462E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -902,16 +1072,16 @@
         <v>557.89353830541654</v>
       </c>
       <c r="B8">
+        <v>2.5339324136447169E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.65247158669350502</v>
+      </c>
+      <c r="D8">
         <v>1174.9268601683989</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>734.255</v>
-      </c>
-      <c r="D8">
-        <v>0.65247158669350502</v>
-      </c>
-      <c r="E8">
-        <v>2.5339324136447169E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -919,16 +1089,16 @@
         <v>521.54518623377135</v>
       </c>
       <c r="B9">
+        <v>2.451972336650696E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.65657810883964263</v>
+      </c>
+      <c r="D9">
         <v>1176.7995150394561</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>666.12846347607058</v>
-      </c>
-      <c r="D9">
-        <v>0.65657810883964263</v>
-      </c>
-      <c r="E9">
-        <v>2.451972336650696E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -936,16 +1106,16 @@
         <v>534.27094820443904</v>
       </c>
       <c r="B10">
+        <v>2.5708682753977301E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.66204750866635453</v>
+      </c>
+      <c r="D10">
         <v>1225.746184748609</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>669.54368932038835</v>
-      </c>
-      <c r="D10">
-        <v>0.66204750866635453</v>
-      </c>
-      <c r="E10">
-        <v>2.5708682753977301E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -953,16 +1123,16 @@
         <v>455.31287426582003</v>
       </c>
       <c r="B11">
+        <v>3.0450557704565721E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.67382026664366157</v>
+      </c>
+      <c r="D11">
         <v>1153.08647274905</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>654.70886075949363</v>
-      </c>
-      <c r="D11">
-        <v>0.67382026664366157</v>
-      </c>
-      <c r="E11">
-        <v>3.0450557704565721E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -970,16 +1140,16 @@
         <v>452.27084097778572</v>
       </c>
       <c r="B12">
+        <v>2.2340148991252948E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.67607751856864062</v>
+      </c>
+      <c r="D12">
         <v>1125.084807395458</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>705.28235294117644</v>
-      </c>
-      <c r="D12">
-        <v>0.67607751856864062</v>
-      </c>
-      <c r="E12">
-        <v>2.2340148991252948E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -987,16 +1157,16 @@
         <v>552.4128056165473</v>
       </c>
       <c r="B13">
+        <v>2.2897146847051929E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.66200838384367067</v>
+      </c>
+      <c r="D13">
         <v>1149.301697337924</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>744.37971698113211</v>
-      </c>
-      <c r="D13">
-        <v>0.66200838384367067</v>
-      </c>
-      <c r="E13">
-        <v>2.2897146847051929E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1004,16 +1174,16 @@
         <v>764.54267536228645</v>
       </c>
       <c r="B14">
+        <v>2.3426291116924791E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.68619494224265187</v>
+      </c>
+      <c r="D14">
         <v>1413.729133965084</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>774.40302267002517</v>
-      </c>
-      <c r="D14">
-        <v>0.68619494224265187</v>
-      </c>
-      <c r="E14">
-        <v>2.3426291116924791E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1021,16 +1191,16 @@
         <v>439.9372876204427</v>
       </c>
       <c r="B15">
+        <v>2.733476191018987E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.6402326837850193</v>
+      </c>
+      <c r="D15">
         <v>1143.5316066813259</v>
       </c>
-      <c r="C15">
+      <c r="E15">
         <v>782.67726161369194</v>
-      </c>
-      <c r="D15">
-        <v>0.6402326837850193</v>
-      </c>
-      <c r="E15">
-        <v>2.733476191018987E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1038,16 +1208,16 @@
         <v>422.72038189983363</v>
       </c>
       <c r="B16">
+        <v>2.6019372058818858E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.65042987553934983</v>
+      </c>
+      <c r="D16">
         <v>1083.263317985715</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>742.27407407407406</v>
-      </c>
-      <c r="D16">
-        <v>0.65042987553934983</v>
-      </c>
-      <c r="E16">
-        <v>2.6019372058818858E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1055,16 +1225,16 @@
         <v>517.67852050427575</v>
       </c>
       <c r="B17">
+        <v>2.5621112531782821E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.65037357491686354</v>
+      </c>
+      <c r="D17">
         <v>1244.2316261077531</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>690.55754475703327</v>
-      </c>
-      <c r="D17">
-        <v>0.65037357491686354</v>
-      </c>
-      <c r="E17">
-        <v>2.5621112531782821E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1072,16 +1242,16 @@
         <v>512.50162201016587</v>
       </c>
       <c r="B18">
+        <v>2.8106274693205039E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.65451889333525071</v>
+      </c>
+      <c r="D18">
         <v>1152.5798848199231</v>
       </c>
-      <c r="C18">
+      <c r="E18">
         <v>739.05378973105132</v>
-      </c>
-      <c r="D18">
-        <v>0.65451889333525071</v>
-      </c>
-      <c r="E18">
-        <v>2.8106274693205039E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1089,16 +1259,16 @@
         <v>563.3719590770429</v>
       </c>
       <c r="B19">
+        <v>2.5669393916885951E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.64075920995877222</v>
+      </c>
+      <c r="D19">
         <v>1224.602218551096</v>
       </c>
-      <c r="C19">
+      <c r="E19">
         <v>738.27102803738319</v>
-      </c>
-      <c r="D19">
-        <v>0.64075920995877222</v>
-      </c>
-      <c r="E19">
-        <v>2.5669393916885951E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1106,16 +1276,186 @@
         <v>518.10286318713645</v>
       </c>
       <c r="B20">
+        <v>3.1926710128734929E-2</v>
+      </c>
+      <c r="C20">
+        <v>0.64175690625679105</v>
+      </c>
+      <c r="D20">
         <v>1184.8491794670381</v>
       </c>
-      <c r="C20">
+      <c r="E20">
         <v>534.29323308270682</v>
       </c>
-      <c r="D20">
-        <v>0.64175690625679105</v>
-      </c>
-      <c r="E20">
-        <v>3.1926710128734929E-2</v>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>451.69684887215192</v>
+      </c>
+      <c r="B21">
+        <v>2.911401200291892E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.66195097568264449</v>
+      </c>
+      <c r="D21">
+        <v>1093.590411825302</v>
+      </c>
+      <c r="E21">
+        <v>778.04627249357327</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>591.99394461392683</v>
+      </c>
+      <c r="B22">
+        <v>2.253787440840611E-2</v>
+      </c>
+      <c r="C22">
+        <v>0.66204960527331058</v>
+      </c>
+      <c r="D22">
+        <v>1299.6321297623031</v>
+      </c>
+      <c r="E22">
+        <v>854.36165048543694</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>491.86344865316943</v>
+      </c>
+      <c r="B23">
+        <v>2.6568380158991468E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.6462680259365351</v>
+      </c>
+      <c r="D23">
+        <v>1186.318552889916</v>
+      </c>
+      <c r="E23">
+        <v>682.33076923076919</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>536.74957602377594</v>
+      </c>
+      <c r="B24">
+        <v>2.2517254308151751E-2</v>
+      </c>
+      <c r="C24">
+        <v>0.65997760980244935</v>
+      </c>
+      <c r="D24">
+        <v>1239.145557294951</v>
+      </c>
+      <c r="E24">
+        <v>798.16582914572859</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>500.0002999487067</v>
+      </c>
+      <c r="B25">
+        <v>2.0261695361611438E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.68070861692141194</v>
+      </c>
+      <c r="D25">
+        <v>1098.332840041923</v>
+      </c>
+      <c r="E25">
+        <v>1026.636363636364</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>599.91491183147036</v>
+      </c>
+      <c r="B26">
+        <v>2.3849887723140239E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.67077916395421933</v>
+      </c>
+      <c r="D26">
+        <v>1239.412015674053</v>
+      </c>
+      <c r="E26">
+        <v>660.18997361477568</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>472.83606200161029</v>
+      </c>
+      <c r="B27">
+        <v>2.6823748199085961E-2</v>
+      </c>
+      <c r="C27">
+        <v>0.65914535104743344</v>
+      </c>
+      <c r="D27">
+        <v>1049.2593627173551</v>
+      </c>
+      <c r="E27">
+        <v>844.13868613138686</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>572.35467113143432</v>
+      </c>
+      <c r="B28">
+        <v>2.285116083074909E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.68722463009972679</v>
+      </c>
+      <c r="D28">
+        <v>1294.7712522373311</v>
+      </c>
+      <c r="E28">
+        <v>851.98500000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>560.55655357709372</v>
+      </c>
+      <c r="B29">
+        <v>2.4640894240206969E-2</v>
+      </c>
+      <c r="C29">
+        <v>0.65730644759262846</v>
+      </c>
+      <c r="D29">
+        <v>1238.064111508085</v>
+      </c>
+      <c r="E29">
+        <v>826.28947368421052</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>650.33914177254144</v>
+      </c>
+      <c r="B30">
+        <v>2.124134650735662E-2</v>
+      </c>
+      <c r="C30">
+        <v>0.67561211851251113</v>
+      </c>
+      <c r="D30">
+        <v>1285.187247788451</v>
+      </c>
+      <c r="E30">
+        <v>701.1687657430731</v>
       </c>
     </row>
   </sheetData>
@@ -1125,10 +1465,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC77578-47CB-4306-A5C2-BC63AA56775E}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1141,36 +1481,36 @@
         <v>529.39012828823593</v>
       </c>
       <c r="B1">
+        <v>2.2300789139516511E-2</v>
+      </c>
+      <c r="C1">
+        <v>0.65623807437964488</v>
+      </c>
+      <c r="D1">
         <v>1217.367664007277</v>
       </c>
-      <c r="C1">
+      <c r="E1">
         <v>868.92171717171721</v>
       </c>
-      <c r="D1">
-        <v>0.65623807437964488</v>
-      </c>
-      <c r="E1">
-        <v>2.2300789139516511E-2</v>
-      </c>
-      <c r="G1">
-        <f>AVERAGE(A1:A15)</f>
-        <v>515.76688226007354</v>
-      </c>
-      <c r="H1">
-        <f>AVERAGE(B1:B15)</f>
-        <v>1157.81497290313</v>
-      </c>
-      <c r="I1">
-        <f>AVERAGE(C1:C15)</f>
-        <v>726.36118063633523</v>
-      </c>
-      <c r="J1">
-        <f>AVERAGE(D1:D15)</f>
-        <v>0.66651158200092731</v>
-      </c>
-      <c r="K1">
-        <f>AVERAGE(E1:E15)</f>
-        <v>2.5279414189480889E-2</v>
+      <c r="G1" t="str">
+        <f>CONCATENATE(AVERAGE(A1:A30), " ± ", 1.96*_xlfn.STDEV.S(A1:A30)/SQRT(30))</f>
+        <v>520.895860046022 ± 24.058104994376</v>
+      </c>
+      <c r="H1" t="str">
+        <f t="shared" ref="H1:K1" si="0">CONCATENATE(AVERAGE(B1:B30), " ± ", 1.96*_xlfn.STDEV.S(B1:B30)/SQRT(30))</f>
+        <v>0.0247901989437068 ± 0.000852830107248655</v>
+      </c>
+      <c r="I1" t="str">
+        <f t="shared" si="0"/>
+        <v>0.665401368551402 ± 0.00471439264665011</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" si="0"/>
+        <v>1172.76587595769 ± 32.8530382996139</v>
+      </c>
+      <c r="K1" t="str">
+        <f t="shared" si="0"/>
+        <v>741.516488061442 ± 35.4139418446733</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1178,16 +1518,16 @@
         <v>536.84488877732156</v>
       </c>
       <c r="B2">
+        <v>2.1830730473957369E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.68032958341729433</v>
+      </c>
+      <c r="D2">
         <v>1160.164362269956</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>707.95</v>
-      </c>
-      <c r="D2">
-        <v>0.68032958341729433</v>
-      </c>
-      <c r="E2">
-        <v>2.1830730473957369E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1195,16 +1535,16 @@
         <v>522.24770474447018</v>
       </c>
       <c r="B3">
+        <v>2.5725817465341059E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.68540635697333308</v>
+      </c>
+      <c r="D3">
         <v>1080.2034503709051</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>693.78978978978978</v>
-      </c>
-      <c r="D3">
-        <v>0.68540635697333308</v>
-      </c>
-      <c r="E3">
-        <v>2.5725817465341059E-2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1212,16 +1552,16 @@
         <v>485.92377720700938</v>
       </c>
       <c r="B4">
+        <v>2.656421077843418E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.64851512598369687</v>
+      </c>
+      <c r="D4">
         <v>1124.8552821412511</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>709.87864077669906</v>
-      </c>
-      <c r="D4">
-        <v>0.64851512598369687</v>
-      </c>
-      <c r="E4">
-        <v>2.656421077843418E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1229,16 +1569,16 @@
         <v>501.2010016659674</v>
       </c>
       <c r="B5">
+        <v>2.6522290785725829E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.65321441784606915</v>
+      </c>
+      <c r="D5">
         <v>1159.5843818421729</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>837.38604651162791</v>
-      </c>
-      <c r="D5">
-        <v>0.65321441784606915</v>
-      </c>
-      <c r="E5">
-        <v>2.6522290785725829E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1246,16 +1586,16 @@
         <v>420.38565525002127</v>
       </c>
       <c r="B6">
+        <v>2.6629456419181911E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.65493053272900137</v>
+      </c>
+      <c r="D6">
         <v>1026.3847792267729</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>668.89646464646466</v>
-      </c>
-      <c r="D6">
-        <v>0.65493053272900137</v>
-      </c>
-      <c r="E6">
-        <v>2.6629456419181911E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1263,16 +1603,16 @@
         <v>713.28168909361329</v>
       </c>
       <c r="B7">
+        <v>2.4132973567627461E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.68169114398052155</v>
+      </c>
+      <c r="D7">
         <v>1383.0561459905989</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>675.16321243523316</v>
-      </c>
-      <c r="D7">
-        <v>0.68169114398052155</v>
-      </c>
-      <c r="E7">
-        <v>2.4132973567627461E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1280,16 +1620,16 @@
         <v>470.02477365397368</v>
       </c>
       <c r="B8">
+        <v>2.6454299174723549E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.66848966539265742</v>
+      </c>
+      <c r="D8">
         <v>1095.3493692519171</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>751.44611528822054</v>
-      </c>
-      <c r="D8">
-        <v>0.66848966539265742</v>
-      </c>
-      <c r="E8">
-        <v>2.6454299174723549E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1297,16 +1637,16 @@
         <v>544.68894936474283</v>
       </c>
       <c r="B9">
+        <v>2.3685705946734539E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.68284441818636188</v>
+      </c>
+      <c r="D9">
         <v>1212.8969577596511</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>676.53535353535358</v>
-      </c>
-      <c r="D9">
-        <v>0.68284441818636188</v>
-      </c>
-      <c r="E9">
-        <v>2.3685705946734539E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1314,16 +1654,16 @@
         <v>550.431007928996</v>
       </c>
       <c r="B10">
+        <v>2.13560715960429E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.68721059850780319</v>
+      </c>
+      <c r="D10">
         <v>1254.392568752266</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>648.24455205811137</v>
-      </c>
-      <c r="D10">
-        <v>0.68721059850780319</v>
-      </c>
-      <c r="E10">
-        <v>2.13560715960429E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1331,16 +1671,16 @@
         <v>479.75888221144191</v>
       </c>
       <c r="B11">
+        <v>2.8378890896113809E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.6759713893799294</v>
+      </c>
+      <c r="D11">
         <v>1174.159349296501</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>651.6</v>
-      </c>
-      <c r="D11">
-        <v>0.6759713893799294</v>
-      </c>
-      <c r="E11">
-        <v>2.8378890896113809E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1348,16 +1688,16 @@
         <v>597.04478792815075</v>
       </c>
       <c r="B12">
+        <v>2.6579743371293159E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.67375751865688893</v>
+      </c>
+      <c r="D12">
         <v>1244.2596134077951</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>674.68396226415098</v>
-      </c>
-      <c r="D12">
-        <v>0.67375751865688893</v>
-      </c>
-      <c r="E12">
-        <v>2.6579743371293159E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1365,16 +1705,16 @@
         <v>433.91744807506728</v>
       </c>
       <c r="B13">
+        <v>2.4136610764090769E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.65330615409895187</v>
+      </c>
+      <c r="D13">
         <v>1038.0901945972721</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>753.44835680751169</v>
-      </c>
-      <c r="D13">
-        <v>0.65330615409895187</v>
-      </c>
-      <c r="E13">
-        <v>2.4136610764090769E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1382,16 +1722,16 @@
         <v>399.04589220000003</v>
       </c>
       <c r="B14">
+        <v>2.7215684E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.65913231000000005</v>
+      </c>
+      <c r="D14">
         <v>991.72738700000002</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>801.60552759999996</v>
-      </c>
-      <c r="D14">
-        <v>0.65913231000000005</v>
-      </c>
-      <c r="E14">
-        <v>2.7215684E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1399,16 +1739,16 @@
         <v>552.31664751209109</v>
       </c>
       <c r="B15">
+        <v>2.7677938463430259E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.63663644048175472</v>
+      </c>
+      <c r="D15">
         <v>1204.733087632613</v>
       </c>
-      <c r="C15">
+      <c r="E15">
         <v>775.86797066014674</v>
-      </c>
-      <c r="D15">
-        <v>0.63663644048175472</v>
-      </c>
-      <c r="E15">
-        <v>2.7677938463430259E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1416,16 +1756,16 @@
         <v>505.57859406144428</v>
       </c>
       <c r="B16">
+        <v>2.5571993941440899E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.65285256448638562</v>
+      </c>
+      <c r="D16">
         <v>1151.124938654563</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>744.06930693069307</v>
-      </c>
-      <c r="D16">
-        <v>0.65285256448638562</v>
-      </c>
-      <c r="E16">
-        <v>2.5571993941440899E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1433,33 +1773,33 @@
         <v>506.95199079070358</v>
       </c>
       <c r="B17">
+        <v>2.4709163978245241E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.66935912055611568</v>
+      </c>
+      <c r="D17">
         <v>1179.3006833047671</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>657.64795918367349</v>
-      </c>
-      <c r="D17">
-        <v>0.66935912055611568</v>
-      </c>
-      <c r="E17">
-        <v>2.4709163978245241E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>540.33662120741485</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
+        <v>2.7527858139910089E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.65541822691647345</v>
+      </c>
+      <c r="D18" s="1">
         <v>1186.999757147534</v>
       </c>
-      <c r="C18">
+      <c r="E18">
         <v>733.58435207823959</v>
-      </c>
-      <c r="D18">
-        <v>0.65541822691647345</v>
-      </c>
-      <c r="E18">
-        <v>2.7527858139910089E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1467,16 +1807,16 @@
         <v>612.9041266970105</v>
       </c>
       <c r="B19">
+        <v>2.4656841490867661E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.65182847736048921</v>
+      </c>
+      <c r="D19">
         <v>1334.8822897165801</v>
       </c>
-      <c r="C19">
+      <c r="E19">
         <v>723.3878504672897</v>
-      </c>
-      <c r="D19">
-        <v>0.65182847736048921</v>
-      </c>
-      <c r="E19">
-        <v>2.4656841490867661E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1484,16 +1824,186 @@
         <v>502.93960544910021</v>
       </c>
       <c r="B20">
+        <v>2.553756992656114E-2</v>
+      </c>
+      <c r="C20">
+        <v>0.67122116223758777</v>
+      </c>
+      <c r="D20">
         <v>1146.439835665238</v>
       </c>
-      <c r="C20">
+      <c r="E20">
         <v>511.50749999999999</v>
       </c>
-      <c r="D20">
-        <v>0.67122116223758777</v>
-      </c>
-      <c r="E20">
-        <v>2.553756992656114E-2</v>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>465.62505894929961</v>
+      </c>
+      <c r="B21">
+        <v>2.8116486235745419E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.67168453339865442</v>
+      </c>
+      <c r="D21">
+        <v>1067.2680804707079</v>
+      </c>
+      <c r="E21">
+        <v>759.41752577319585</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>591.99394461392683</v>
+      </c>
+      <c r="B22">
+        <v>2.253787440840611E-2</v>
+      </c>
+      <c r="C22">
+        <v>0.66204960527331058</v>
+      </c>
+      <c r="D22">
+        <v>1299.6321297623031</v>
+      </c>
+      <c r="E22">
+        <v>854.36165048543694</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>515.89664520281656</v>
+      </c>
+      <c r="B23">
+        <v>2.6862452754174621E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.65877952078592417</v>
+      </c>
+      <c r="D23">
+        <v>1166.2599858106701</v>
+      </c>
+      <c r="E23">
+        <v>648.67609254498711</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>492.77533852628841</v>
+      </c>
+      <c r="B24">
+        <v>1.818863073530359E-2</v>
+      </c>
+      <c r="C24">
+        <v>0.68020433326053664</v>
+      </c>
+      <c r="D24">
+        <v>1161.4679755272109</v>
+      </c>
+      <c r="E24">
+        <v>789.52141057934512</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>549.99239711954499</v>
+      </c>
+      <c r="B25">
+        <v>2.299207217275365E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.66807641782949689</v>
+      </c>
+      <c r="D25">
+        <v>1228.4053562627739</v>
+      </c>
+      <c r="E25">
+        <v>1035.748251748252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>445.21193836770487</v>
+      </c>
+      <c r="B26">
+        <v>2.3585970558791459E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.6579048797131154</v>
+      </c>
+      <c r="D26">
+        <v>1106.742617317052</v>
+      </c>
+      <c r="E26">
+        <v>686.21693121693124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>486.57980595830441</v>
+      </c>
+      <c r="B27">
+        <v>2.2956767184463552E-2</v>
+      </c>
+      <c r="C27">
+        <v>0.67535542267633253</v>
+      </c>
+      <c r="D27">
+        <v>1121.137369097238</v>
+      </c>
+      <c r="E27">
+        <v>836.42579075425795</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>572.35466291148543</v>
+      </c>
+      <c r="B28">
+        <v>2.5681455633236851E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.66093698572041371</v>
+      </c>
+      <c r="D28">
+        <v>1310.593649313073</v>
+      </c>
+      <c r="E28">
+        <v>865.83249999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>460.00774116828097</v>
+      </c>
+      <c r="B29">
+        <v>2.158952294041025E-2</v>
+      </c>
+      <c r="C29">
+        <v>0.64784784401962814</v>
+      </c>
+      <c r="D29">
+        <v>1106.919699941737</v>
+      </c>
+      <c r="E29">
+        <v>839.57177033492826</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>641.22409645622417</v>
+      </c>
+      <c r="B30">
+        <v>2.4000095368680412E-2</v>
+      </c>
+      <c r="C30">
+        <v>0.68084823229368208</v>
+      </c>
+      <c r="D30">
+        <v>1248.577317192304</v>
+      </c>
+      <c r="E30">
+        <v>664.108040201005</v>
       </c>
     </row>
   </sheetData>
